--- a/biology/Botanique/Cleistocactus/Cleistocactus.xlsx
+++ b/biology/Botanique/Cleistocactus/Cleistocactus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cleistocactus est un genre de la famille des Cactacées, composé d'une quarantaine d'espèces[1]. Soit de forme arbustive ou en forme d'arbre, les tiges charnues peuvent être érigées, rampantes ou retombantes. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cleistocactus est un genre de la famille des Cactacées, composé d'une quarantaine d'espèces. Soit de forme arbustive ou en forme d'arbre, les tiges charnues peuvent être érigées, rampantes ou retombantes. 
 Les fleurs en tubes étroits sont hermaphrodites. 
-On les trouve en Amérique du Sud, notamment  Pérou, en Uruguay, au Paraguay, en Bolivie et dans le nord de l'Argentine[1]. 
+On les trouve en Amérique du Sud, notamment  Pérou, en Uruguay, au Paraguay, en Bolivie et dans le nord de l'Argentine. 
 Ils comportent de nombreuses côtes dont les aréoles se distinguent peu. 
 Le nom vient du grec kleistos (=fermé) parce que les fleurs s'ouvrent peu. 
 </t>
@@ -517,8 +529,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Liste d'espèces
-49 espèces : (liste incomplète)
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">49 espèces : (liste incomplète)
 Cleistocactus aureispinus (= Loxanthocereus aureispinus)
 Cleistocactus baumannii
 Cleistocactus bruneispinus
@@ -539,9 +556,43 @@
 Cleistocactus tarijensis
 Cleistocactus tominensis
 Cleistocactus winteri
-[2]
-Synonymes
-Les genres suivants sont considérés comme des synonymes de Cleistocactus : 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cleistocactus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cleistocactus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les genres suivants sont considérés comme des synonymes de Cleistocactus : 
 Akersia Buining
 Bolivicereus Cárdenas
 Borzicactella H.Johnson ex F.Ritter
